--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Efna2-Epha4.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Efna2-Epha4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,10 +519,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -528,49 +531,49 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.80350589110504</v>
+        <v>1.192082333333333</v>
       </c>
       <c r="H2">
-        <v>1.80350589110504</v>
+        <v>3.576247</v>
       </c>
       <c r="I2">
-        <v>0.6592251333277181</v>
+        <v>0.2797939869571494</v>
       </c>
       <c r="J2">
-        <v>0.6592251333277181</v>
+        <v>0.2797939869571493</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>6.63244646469018</v>
+        <v>6.708176333333333</v>
       </c>
       <c r="N2">
-        <v>6.63244646469018</v>
+        <v>20.124529</v>
       </c>
       <c r="O2">
-        <v>0.8204660644057592</v>
+        <v>0.4356329228871633</v>
       </c>
       <c r="P2">
-        <v>0.8204660644057592</v>
+        <v>0.4356329228871633</v>
       </c>
       <c r="Q2">
-        <v>11.96165627150754</v>
+        <v>7.996698495851444</v>
       </c>
       <c r="R2">
-        <v>11.96165627150754</v>
+        <v>71.970286462663</v>
       </c>
       <c r="S2">
-        <v>0.5408718506987548</v>
+        <v>0.1218874723443958</v>
       </c>
       <c r="T2">
-        <v>0.5408718506987548</v>
+        <v>0.1218874723443958</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,10 +581,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -590,111 +593,111 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.80350589110504</v>
+        <v>1.192082333333333</v>
       </c>
       <c r="H3">
-        <v>1.80350589110504</v>
+        <v>3.576247</v>
       </c>
       <c r="I3">
-        <v>0.6592251333277181</v>
+        <v>0.2797939869571494</v>
       </c>
       <c r="J3">
-        <v>0.6592251333277181</v>
+        <v>0.2797939869571493</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.4513083088773</v>
+        <v>6.789877333333333</v>
       </c>
       <c r="N3">
-        <v>1.4513083088773</v>
+        <v>20.369632</v>
       </c>
       <c r="O3">
-        <v>0.1795339355942407</v>
+        <v>0.4409386339573907</v>
       </c>
       <c r="P3">
-        <v>0.1795339355942407</v>
+        <v>0.4409386339573907</v>
       </c>
       <c r="Q3">
-        <v>2.617443084869903</v>
+        <v>8.09409281456711</v>
       </c>
       <c r="R3">
-        <v>2.617443084869903</v>
+        <v>72.846835331104</v>
       </c>
       <c r="S3">
-        <v>0.1183532826289633</v>
+        <v>0.1233719783983774</v>
       </c>
       <c r="T3">
-        <v>0.1183532826289633</v>
+        <v>0.1233719783983774</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.9322907281789971</v>
+        <v>1.192082333333333</v>
       </c>
       <c r="H4">
-        <v>0.9322907281789971</v>
+        <v>3.576247</v>
       </c>
       <c r="I4">
-        <v>0.3407748666722818</v>
+        <v>0.2797939869571494</v>
       </c>
       <c r="J4">
-        <v>0.3407748666722818</v>
+        <v>0.2797939869571493</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.63244646469018</v>
+        <v>1.900636333333334</v>
       </c>
       <c r="N4">
-        <v>6.63244646469018</v>
+        <v>5.701909000000001</v>
       </c>
       <c r="O4">
-        <v>0.8204660644057592</v>
+        <v>0.1234284431554459</v>
       </c>
       <c r="P4">
-        <v>0.8204660644057592</v>
+        <v>0.1234284431554459</v>
       </c>
       <c r="Q4">
-        <v>6.183368344174223</v>
+        <v>2.265714995058111</v>
       </c>
       <c r="R4">
-        <v>6.183368344174223</v>
+        <v>20.391434955523</v>
       </c>
       <c r="S4">
-        <v>0.2795942137070044</v>
+        <v>0.03453453621437608</v>
       </c>
       <c r="T4">
-        <v>0.2795942137070044</v>
+        <v>0.03453453621437608</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -702,61 +705,371 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1.843761666666667</v>
+      </c>
+      <c r="H5">
+        <v>5.531285</v>
+      </c>
+      <c r="I5">
+        <v>0.4327498305196134</v>
+      </c>
+      <c r="J5">
+        <v>0.4327498305196134</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>6.708176333333333</v>
+      </c>
+      <c r="N5">
+        <v>20.124529</v>
+      </c>
+      <c r="O5">
+        <v>0.4356329228871633</v>
+      </c>
+      <c r="P5">
+        <v>0.4356329228871633</v>
+      </c>
+      <c r="Q5">
+        <v>12.36827837664056</v>
+      </c>
+      <c r="R5">
+        <v>111.314505389765</v>
+      </c>
+      <c r="S5">
+        <v>0.1885200735481838</v>
+      </c>
+      <c r="T5">
+        <v>0.1885200735481837</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1.843761666666667</v>
+      </c>
+      <c r="H6">
+        <v>5.531285</v>
+      </c>
+      <c r="I6">
+        <v>0.4327498305196134</v>
+      </c>
+      <c r="J6">
+        <v>0.4327498305196134</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>6.789877333333333</v>
+      </c>
+      <c r="N6">
+        <v>20.369632</v>
+      </c>
+      <c r="O6">
+        <v>0.4409386339573907</v>
+      </c>
+      <c r="P6">
+        <v>0.4409386339573907</v>
+      </c>
+      <c r="Q6">
+        <v>12.51891554856889</v>
+      </c>
+      <c r="R6">
+        <v>112.67023993712</v>
+      </c>
+      <c r="S6">
+        <v>0.1908161191146107</v>
+      </c>
+      <c r="T6">
+        <v>0.1908161191146107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.843761666666667</v>
+      </c>
+      <c r="H7">
+        <v>5.531285</v>
+      </c>
+      <c r="I7">
+        <v>0.4327498305196134</v>
+      </c>
+      <c r="J7">
+        <v>0.4327498305196134</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.900636333333334</v>
+      </c>
+      <c r="N7">
+        <v>5.701909000000001</v>
+      </c>
+      <c r="O7">
+        <v>0.1234284431554459</v>
+      </c>
+      <c r="P7">
+        <v>0.1234284431554459</v>
+      </c>
+      <c r="Q7">
+        <v>3.50432041367389</v>
+      </c>
+      <c r="R7">
+        <v>31.53888372306501</v>
+      </c>
+      <c r="S7">
+        <v>0.05341363785681896</v>
+      </c>
+      <c r="T7">
+        <v>0.05341363785681895</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.224727666666667</v>
+      </c>
+      <c r="H8">
+        <v>3.674183</v>
+      </c>
+      <c r="I8">
+        <v>0.2874561825232373</v>
+      </c>
+      <c r="J8">
+        <v>0.2874561825232373</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>6.708176333333333</v>
+      </c>
+      <c r="N8">
+        <v>20.124529</v>
+      </c>
+      <c r="O8">
+        <v>0.4356329228871633</v>
+      </c>
+      <c r="P8">
+        <v>0.4356329228871633</v>
+      </c>
+      <c r="Q8">
+        <v>8.215689148311888</v>
+      </c>
+      <c r="R8">
+        <v>73.941202334807</v>
+      </c>
+      <c r="S8">
+        <v>0.1252253769945838</v>
+      </c>
+      <c r="T8">
+        <v>0.1252253769945838</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.9322907281789971</v>
-      </c>
-      <c r="H5">
-        <v>0.9322907281789971</v>
-      </c>
-      <c r="I5">
-        <v>0.3407748666722818</v>
-      </c>
-      <c r="J5">
-        <v>0.3407748666722818</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1.4513083088773</v>
-      </c>
-      <c r="N5">
-        <v>1.4513083088773</v>
-      </c>
-      <c r="O5">
-        <v>0.1795339355942407</v>
-      </c>
-      <c r="P5">
-        <v>0.1795339355942407</v>
-      </c>
-      <c r="Q5">
-        <v>1.353041280095447</v>
-      </c>
-      <c r="R5">
-        <v>1.353041280095447</v>
-      </c>
-      <c r="S5">
-        <v>0.06118065296527741</v>
-      </c>
-      <c r="T5">
-        <v>0.06118065296527741</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.224727666666667</v>
+      </c>
+      <c r="H9">
+        <v>3.674183</v>
+      </c>
+      <c r="I9">
+        <v>0.2874561825232373</v>
+      </c>
+      <c r="J9">
+        <v>0.2874561825232373</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>6.789877333333333</v>
+      </c>
+      <c r="N9">
+        <v>20.369632</v>
+      </c>
+      <c r="O9">
+        <v>0.4409386339573907</v>
+      </c>
+      <c r="P9">
+        <v>0.4409386339573907</v>
+      </c>
+      <c r="Q9">
+        <v>8.315750623406222</v>
+      </c>
+      <c r="R9">
+        <v>74.84175561065601</v>
+      </c>
+      <c r="S9">
+        <v>0.1267505364444026</v>
+      </c>
+      <c r="T9">
+        <v>0.1267505364444026</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.224727666666667</v>
+      </c>
+      <c r="H10">
+        <v>3.674183</v>
+      </c>
+      <c r="I10">
+        <v>0.2874561825232373</v>
+      </c>
+      <c r="J10">
+        <v>0.2874561825232373</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.900636333333334</v>
+      </c>
+      <c r="N10">
+        <v>5.701909000000001</v>
+      </c>
+      <c r="O10">
+        <v>0.1234284431554459</v>
+      </c>
+      <c r="P10">
+        <v>0.1234284431554459</v>
+      </c>
+      <c r="Q10">
+        <v>2.327761901705223</v>
+      </c>
+      <c r="R10">
+        <v>20.949857115347</v>
+      </c>
+      <c r="S10">
+        <v>0.03548026908425088</v>
+      </c>
+      <c r="T10">
+        <v>0.03548026908425088</v>
       </c>
     </row>
   </sheetData>
